--- a/biology/Zoologie/The_Cove/The_Cove.xlsx
+++ b/biology/Zoologie/The_Cove/The_Cove.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Cove (La Baie de la honte) est un film documentaire américain, Oscar du meilleur film documentaire 2010, sur la pêche controversée de plus de 23 000 dauphins dans une petite baie à Taiji dans la préfecture de Wakayama au Japon.
 Le film a été réalisé par un ancien photographe du National Geographic, Louie Psihoyos, et filmé secrètement en 2007 en utilisant des microphones sous-marins et des caméras de haute résolution camouflées en rochers.
-Le documentaire a remporté l’U.S. Audience Award au 25e festival du film de Sundance à Park City dans l'Utah aux États-Unis en janvier 2009 ainsi que l'Oscar du meilleur film documentaire 2010. Il est distribué en France par Luc Besson (EuropaCorp Distribution)[1].
+Le documentaire a remporté l’U.S. Audience Award au 25e festival du film de Sundance à Park City dans l'Utah aux États-Unis en janvier 2009 ainsi que l'Oscar du meilleur film documentaire 2010. Il est distribué en France par Luc Besson (EuropaCorp Distribution).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film suit les pérégrinations de Ric O'Barry, ancien dresseur de dauphins devenu activiste, qui enquête sur la chasse au dauphin à Taiji (Wakayama) au Japon. 
 Dans les années 1960, Ric O'Barry capture et dresse cinq dauphins sauvages qui joueront le rôle de Flipper dans la série télévisée éponyme. Cette série a un grand impact auprès du public et popularise l'image des dauphins, influençant de fait le développement des parcs aquatiques comprenant des spectacles de dauphins. C'est à cette époque qu'un des dauphins commet ce que O'Barry interprète comme un suicide, en fermant volontairement son évent alors que le dresseur le tient dans les bras. A la suite de cet évènement O'Barry change radicalement d'opinion sur l'industrie menant à la captivité des dauphins, la considérant à présent comme une malédiction. A peine quelques jours après la mort du dauphin dans ses bras, O'Barry est arrêté en mer près de l'île de Bimini alors qu'il essaie libérer un dauphin prisonnier d'un enclos. Dès lors, d'après le film, O'Barry décide de dédier sa vie à la défense des dauphins à travers la planète.    
@@ -550,7 +564,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : The Cove
 Réalisation : Louie Psihoyos
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Joe Chisholm
 Mandy-Rae Cruickshank
@@ -637,9 +655,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>The Cove a remporté treize prix dans douze festivals[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Cove a remporté treize prix dans douze festivals :
 The Audience Award, festival du film de Sundance
 The Audience Award, festival du film Hot Docs
 Golden Space Needle, festival du film international de Seattle
@@ -682,9 +702,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'équipe du film a utilisé des caméras de camouflage haute-définition et a travaillé sur leur design, pour les faire ressembler à des rochers. Ces caméras-cachées ont permis de filmer les images du massacre des dauphins, notamment de nuit. Selon Louie Psihoyos, ces caméras étaient tellement bien camouflées que l'équipe a eu du mal à les retrouver après coup[3].   
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équipe du film a utilisé des caméras de camouflage haute-définition et a travaillé sur leur design, pour les faire ressembler à des rochers. Ces caméras-cachées ont permis de filmer les images du massacre des dauphins, notamment de nuit. Selon Louie Psihoyos, ces caméras étaient tellement bien camouflées que l'équipe a eu du mal à les retrouver après coup.   
 </t>
         </is>
       </c>
